--- a/downloaded_files/EECS306_Lecture-35315.xlsx
+++ b/downloaded_files/EECS306_Lecture-35315.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أحمد سامح محمد محمد الغريب ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Sameh Mohamed Mohamed Elghareeb</x:t>
   </x:si>
   <x:si>
     <x:t>1230003</x:t>
@@ -461,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -852,7 +861,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.4200774306</x:v>
+        <x:v>45923.1338044329</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -884,7 +893,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6702621875</x:v>
+        <x:v>45907.4200774306</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -916,7 +925,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6646690972</x:v>
+        <x:v>45906.6702621875</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -948,7 +957,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.7659619213</x:v>
+        <x:v>45906.6646690972</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -980,7 +989,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.41445</x:v>
+        <x:v>45906.7659619213</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1012,7 +1021,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.5876866088</x:v>
+        <x:v>45907.41445</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1044,7 +1053,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4592127315</x:v>
+        <x:v>45907.5876866088</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1076,7 +1085,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4601518519</x:v>
+        <x:v>45909.4592127315</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1108,7 +1117,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4219476852</x:v>
+        <x:v>45907.4601518519</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1140,7 +1149,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6952433218</x:v>
+        <x:v>45907.4219476852</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1172,7 +1181,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.0130540856</x:v>
+        <x:v>45906.6952433218</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1204,7 +1213,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6650091435</x:v>
+        <x:v>45913.0130540856</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1236,7 +1245,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4332514236</x:v>
+        <x:v>45906.6650091435</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1268,7 +1277,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6649866551</x:v>
+        <x:v>45907.4332514236</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1300,7 +1309,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45906.6649866551</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1332,7 +1341,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1364,7 +1373,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6646794792</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1396,7 +1405,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6969086806</x:v>
+        <x:v>45906.6646794792</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1428,7 +1437,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6644298958</x:v>
+        <x:v>45906.6969086806</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1460,7 +1469,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4213069792</x:v>
+        <x:v>45906.6644298958</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1492,7 +1501,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.414253125</x:v>
+        <x:v>45907.4213069792</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1533,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45907.414253125</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1565,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6647540857</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1597,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.8747353009</x:v>
+        <x:v>45906.6647540857</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.8230241898</x:v>
+        <x:v>45912.8747353009</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4409860764</x:v>
+        <x:v>45912.8230241898</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.8599707523</x:v>
+        <x:v>45909.4409860764</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4258327199</x:v>
+        <x:v>45912.8599707523</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.8583090278</x:v>
+        <x:v>45909.4258327199</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6663738079</x:v>
+        <x:v>45909.8583090278</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45906.6663738079</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.733365625</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.8785739236</x:v>
+        <x:v>45909.733365625</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6647606134</x:v>
+        <x:v>45912.8785739236</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1940,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45906.6647606134</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1957,6 +1966,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Lecture-35315.xlsx
+++ b/downloaded_files/EECS306_Lecture-35315.xlsx
@@ -989,7 +989,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.7659619213</x:v>
+        <x:v>45927.4273397801</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1085,7 +1085,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4592127315</x:v>
+        <x:v>45927.4193980324</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>

--- a/downloaded_files/EECS306_Lecture-35315.xlsx
+++ b/downloaded_files/EECS306_Lecture-35315.xlsx
@@ -177,15 +177,6 @@
     <x:t>sama elhussieny gamal eldin elhussieny</x:t>
   </x:si>
   <x:si>
-    <x:t>1200347</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سهيله احمد سليمان عبدالرحمن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sohaila ahmed Soliman Abdelrahman</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220011</x:t>
   </x:si>
   <x:si>
@@ -337,6 +328,15 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Yasser Mohammed Mohammed Amin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور الدين حسن حامد محمد خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Eldin Hassan Hamed Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>1220212</x:t>
@@ -1373,7 +1373,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45906.6646794792</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1405,7 +1405,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6646794792</x:v>
+        <x:v>45906.6969086806</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1437,7 +1437,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6969086806</x:v>
+        <x:v>45906.6644298958</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1469,7 +1469,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6644298958</x:v>
+        <x:v>45907.4213069792</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1501,7 +1501,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4213069792</x:v>
+        <x:v>45907.414253125</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1533,7 +1533,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.414253125</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1565,7 +1565,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45906.6647540857</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1597,7 +1597,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6647540857</x:v>
+        <x:v>45912.8747353009</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1629,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.8747353009</x:v>
+        <x:v>45912.8230241898</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.8230241898</x:v>
+        <x:v>45909.4409860764</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4409860764</x:v>
+        <x:v>45912.8599707523</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.8599707523</x:v>
+        <x:v>45909.4258327199</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4258327199</x:v>
+        <x:v>45909.8583090278</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.8583090278</x:v>
+        <x:v>45906.6663738079</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6663738079</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45909.733365625</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.733365625</x:v>
+        <x:v>45912.8785739236</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.8785739236</x:v>
+        <x:v>45906.6660860764</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>

--- a/downloaded_files/EECS306_Lecture-35315.xlsx
+++ b/downloaded_files/EECS306_Lecture-35315.xlsx
@@ -989,7 +989,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4273397801</x:v>
+        <x:v>45928.877968831</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>

--- a/downloaded_files/EECS306_Lecture-35315.xlsx
+++ b/downloaded_files/EECS306_Lecture-35315.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,15 +148,6 @@
   </x:si>
   <x:si>
     <x:t>Retag Mohamed Othman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ساره احمد عبد الفتاح محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sara ahmed abdelfattah mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220243</x:t>
@@ -470,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1277,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4332514236</x:v>
+        <x:v>45906.6649866551</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1309,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6649866551</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1341,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45906.6646794792</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1373,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6646794792</x:v>
+        <x:v>45929.3075362616</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1405,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6969086806</x:v>
+        <x:v>45906.6644298958</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1437,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6644298958</x:v>
+        <x:v>45907.4213069792</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1469,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4213069792</x:v>
+        <x:v>45907.414253125</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1501,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.414253125</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1533,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45906.6647540857</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1565,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6647540857</x:v>
+        <x:v>45912.8747353009</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1597,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.8747353009</x:v>
+        <x:v>45912.8230241898</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1629,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.8230241898</x:v>
+        <x:v>45909.4409860764</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4409860764</x:v>
+        <x:v>45912.8599707523</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.8599707523</x:v>
+        <x:v>45909.4258327199</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4258327199</x:v>
+        <x:v>45909.8583090278</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.8583090278</x:v>
+        <x:v>45906.6663738079</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6663738079</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45909.733365625</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.733365625</x:v>
+        <x:v>45912.8785739236</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.8785739236</x:v>
+        <x:v>45906.6660860764</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6660860764</x:v>
+        <x:v>45906.6647606134</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1940,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6647606134</x:v>
+        <x:v>45906.6649261921</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1966,38 +1957,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45906.6649261921</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Lecture-35315.xlsx
+++ b/downloaded_files/EECS306_Lecture-35315.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -274,15 +274,6 @@
   </x:si>
   <x:si>
     <x:t>MOHAMED KHAIRY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عمرو ابراهيم المصري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed amr ebrahim elmasry</x:t>
   </x:si>
   <x:si>
     <x:t>1220197</x:t>
@@ -461,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1716,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.8583090278</x:v>
+        <x:v>45906.6663738079</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6663738079</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45909.733365625</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.733365625</x:v>
+        <x:v>45912.8785739236</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.8785739236</x:v>
+        <x:v>45906.6660860764</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6660860764</x:v>
+        <x:v>45906.6647606134</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1899,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6647606134</x:v>
+        <x:v>45906.6649261921</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1925,38 +1916,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45906.6649261921</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Lecture-35315.xlsx
+++ b/downloaded_files/EECS306_Lecture-35315.xlsx
@@ -78,15 +78,6 @@
     <x:t>Ahmed Hesham Sayed Salem</x:t>
   </x:si>
   <x:si>
-    <x:t>1220224</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد يحى سعد السيد نافع</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Yehya Saad Nafea</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220042</x:t>
   </x:si>
   <x:si>
@@ -94,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Belal Mohamed Elseddik Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنى أحمد مصطفى أحمد مريدن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jana Ahmed Mostafa Ahmed Meriden</x:t>
   </x:si>
   <x:si>
     <x:t>1220233</x:t>
@@ -1003,7 +1003,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.41445</x:v>
+        <x:v>45907.5876866088</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1035,7 +1035,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.5876866088</x:v>
+        <x:v>45934.8603108796</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>

--- a/downloaded_files/EECS306_Lecture-35315.xlsx
+++ b/downloaded_files/EECS306_Lecture-35315.xlsx
@@ -282,7 +282,7 @@
     <x:t>محمد هاني فوزي محمد الخطيب</x:t>
   </x:si>
   <x:si>
-    <x:t>MOHAMMED HANY FAWZY MOHAMMED ALKHATEEB</x:t>
+    <x:t>Mohammed Hany Fawzy Mohammed Alkhateeb</x:t>
   </x:si>
   <x:si>
     <x:t>1220022</x:t>

--- a/downloaded_files/EECS306_Lecture-35315.xlsx
+++ b/downloaded_files/EECS306_Lecture-35315.xlsx
@@ -183,7 +183,7 @@
     <x:t>عبدالرحمن سامح عبد العظيم محمد على</x:t>
   </x:si>
   <x:si>
-    <x:t>abdelrahman sameh abdelazeem</x:t>
+    <x:t>ABDELRAHMAN SAMEH ABDELAZEEM MOHAMED ALY</x:t>
   </x:si>
   <x:si>
     <x:t>1220182</x:t>
